--- a/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
+++ b/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47" xml:space="preserve">
   <si>
     <t>Client</t>
   </si>
@@ -49,13 +49,109 @@
     <t>The estimate is subject to change if and when new information is received or the final designs are approved</t>
   </si>
   <si>
-    <t>First Column</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Min Hours</t>
+  </si>
+  <si>
+    <t>Max Hours</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Min Cost</t>
+  </si>
+  <si>
+    <t>Max Cost</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>iOS Application Development</t>
+  </si>
+  <si>
+    <t>Setting up the project</t>
+  </si>
+  <si>
+    <t>Home screen for fast shrink &amp; info</t>
+  </si>
+  <si>
+    <t>Login and Signup</t>
+  </si>
+  <si>
+    <t>Login with Facebook</t>
+  </si>
+  <si>
+    <t>Forgotten password and terms of service</t>
+  </si>
+  <si>
+    <t>Statistics chart screen</t>
+  </si>
+  <si>
+    <t>Filters for statistics</t>
+  </si>
+  <si>
+    <t>Your links + searching and filtering</t>
+  </si>
+  <si>
+    <t>Profile screen</t>
+  </si>
+  <si>
+    <t>Referals screen</t>
+  </si>
+  <si>
+    <t>Withdraw screen</t>
+  </si>
+  <si>
+    <t>Support screen</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Advertisers statistics</t>
+  </si>
+  <si>
+    <t>Advertisers filters</t>
+  </si>
+  <si>
+    <t>Announcements</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Deployment to Apple AppStore</t>
+  </si>
+  <si>
+    <t>Revisions</t>
+  </si>
+  <si>
+    <t>Mobile Development</t>
+  </si>
+  <si>
+    <t>Android Application Development</t>
+  </si>
+  <si>
+    <t>Getting to know the project</t>
+  </si>
+  <si>
+    <t>Home screen</t>
+  </si>
+  <si>
+    <t>Help screen</t>
+  </si>
+  <si>
+    <t>Deployment to Google Play</t>
   </si>
 </sst>
 </file>
@@ -224,37 +320,901 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -271,37 +1231,994 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
+++ b/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50" xml:space="preserve">
   <si>
     <t>Client</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Deployment to Google Play</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -177,20 +180,40 @@
       <sz val="11"/>
       <family val="1"/>
       <color rgb="FFFFFFFF"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
       <color rgb="FF000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C4C4C"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,8 +254,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -247,23 +274,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.534831460674157"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="75.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.884831460674157"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.9348314606741575"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.884831460674157"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.234831460674156"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -271,7 +298,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -279,7 +306,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -287,7 +314,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -296,7 +323,7 @@
     </row>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -350,86 +377,56 @@
           <t/>
         </is>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -441,26 +438,26 @@
           <t/>
         </is>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="5" t="n">
         <v>20.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="5" t="n">
         <v>30.0</v>
       </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -472,26 +469,26 @@
           <t/>
         </is>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -503,26 +500,26 @@
           <t/>
         </is>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -535,7 +532,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>8.0</v>
@@ -566,13 +563,13 @@
         </is>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
@@ -597,13 +594,13 @@
         </is>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
@@ -628,10 +625,10 @@
         </is>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>8.0</v>
@@ -659,13 +656,13 @@
         </is>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
@@ -690,13 +687,13 @@
         </is>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
@@ -721,7 +718,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>12.0</v>
@@ -752,13 +749,13 @@
         </is>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
@@ -783,13 +780,13 @@
         </is>
       </c>
       <c r="B26" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
@@ -814,7 +811,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>10.0</v>
@@ -845,13 +842,13 @@
         </is>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
@@ -876,13 +873,13 @@
         </is>
       </c>
       <c r="B29" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>6.0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>8.0</v>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
@@ -907,13 +904,13 @@
         </is>
       </c>
       <c r="B30" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
@@ -938,13 +935,13 @@
         </is>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
@@ -969,7 +966,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>8.0</v>
@@ -999,26 +996,26 @@
           <t/>
         </is>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="B33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1030,26 +1027,26 @@
           <t/>
         </is>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5" t="n">
         <v>24.0</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="5" t="n">
         <v>30.0</v>
       </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1061,26 +1058,26 @@
           <t/>
         </is>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="B35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1092,26 +1089,26 @@
           <t/>
         </is>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="n">
         <v>2.0</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="5" t="n">
         <v>2.0</v>
       </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1123,26 +1120,26 @@
           <t/>
         </is>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="B37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1154,26 +1151,26 @@
           <t/>
         </is>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1186,13 +1183,13 @@
         </is>
       </c>
       <c r="B39" s="0" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
@@ -1217,13 +1214,13 @@
         </is>
       </c>
       <c r="B40" s="0" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
@@ -1247,30 +1244,26 @@
           <t/>
         </is>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="B41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1282,26 +1275,30 @@
           <t/>
         </is>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1313,26 +1310,26 @@
           <t/>
         </is>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="5" t="n">
         <v>20.0</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="5" t="n">
         <v>30.0</v>
       </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1344,26 +1341,26 @@
           <t/>
         </is>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>174.0</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>262.0</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="B44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1375,26 +1372,26 @@
           <t/>
         </is>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
+      <c r="B45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1407,7 +1404,7 @@
         </is>
       </c>
       <c r="B46" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>8.0</v>
@@ -1438,13 +1435,13 @@
         </is>
       </c>
       <c r="B47" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
@@ -1469,13 +1466,13 @@
         </is>
       </c>
       <c r="B48" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
@@ -1500,10 +1497,10 @@
         </is>
       </c>
       <c r="B49" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>8.0</v>
@@ -1531,13 +1528,13 @@
         </is>
       </c>
       <c r="B50" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
@@ -1562,13 +1559,13 @@
         </is>
       </c>
       <c r="B51" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
@@ -1593,7 +1590,7 @@
         </is>
       </c>
       <c r="B52" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>12.0</v>
@@ -1624,13 +1621,13 @@
         </is>
       </c>
       <c r="B53" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
@@ -1655,13 +1652,13 @@
         </is>
       </c>
       <c r="B54" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
@@ -1686,7 +1683,7 @@
         </is>
       </c>
       <c r="B55" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>10.0</v>
@@ -1717,13 +1714,13 @@
         </is>
       </c>
       <c r="B56" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
@@ -1748,13 +1745,13 @@
         </is>
       </c>
       <c r="B57" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>6.0</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>8.0</v>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
@@ -1779,13 +1776,13 @@
         </is>
       </c>
       <c r="B58" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
@@ -1810,13 +1807,13 @@
         </is>
       </c>
       <c r="B59" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
@@ -1841,7 +1838,7 @@
         </is>
       </c>
       <c r="B60" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>8.0</v>
@@ -1872,13 +1869,13 @@
         </is>
       </c>
       <c r="B61" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>8.0</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
@@ -1903,10 +1900,10 @@
         </is>
       </c>
       <c r="B62" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>16.0</v>
@@ -1934,13 +1931,13 @@
         </is>
       </c>
       <c r="B63" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
@@ -1964,26 +1961,26 @@
           <t/>
         </is>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="B64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1995,26 +1992,26 @@
           <t/>
         </is>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="5" t="n">
         <v>24.0</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="5" t="n">
         <v>30.0</v>
       </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G65" s="0" t="inlineStr">
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2026,26 +2023,26 @@
           <t/>
         </is>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G66" s="4" t="inlineStr">
+      <c r="B66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2057,26 +2054,26 @@
           <t/>
         </is>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="0" t="n">
+      <c r="B67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="5" t="n">
         <v>2.0</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="5" t="n">
         <v>2.0</v>
       </c>
-      <c r="E67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G67" s="0" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2088,26 +2085,26 @@
           <t/>
         </is>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G68" s="4" t="inlineStr">
+      <c r="B68" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2119,26 +2116,26 @@
           <t/>
         </is>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
+      <c r="B69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2151,13 +2148,13 @@
         </is>
       </c>
       <c r="B70" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
@@ -2182,25 +2179,87 @@
         </is>
       </c>
       <c r="B71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C72" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D72" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="E71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>666.0</v>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
+++ b/public/exports/adf_ly_adf_ly_iOS_and_Android_app_28042015.xlsx
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -259,7 +259,12 @@
     <xf borderId="0" numFmtId="0" fontId="3" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -317,7 +322,7 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -469,26 +474,26 @@
           <t/>
         </is>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="7" t="n">
         <v>20.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="7" t="n">
         <v>30.0</v>
       </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -531,26 +536,26 @@
           <t/>
         </is>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -562,26 +567,26 @@
           <t/>
         </is>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -593,26 +598,26 @@
           <t/>
         </is>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="7" t="n">
         <v>18.0</v>
       </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -624,26 +629,26 @@
           <t/>
         </is>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -655,26 +660,26 @@
           <t/>
         </is>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -686,26 +691,26 @@
           <t/>
         </is>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -717,26 +722,26 @@
           <t/>
         </is>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -748,26 +753,26 @@
           <t/>
         </is>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -779,26 +784,26 @@
           <t/>
         </is>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -810,26 +815,26 @@
           <t/>
         </is>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="7" t="n">
         <v>14.0</v>
       </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -841,26 +846,26 @@
           <t/>
         </is>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="7" t="n">
         <v>14.0</v>
       </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -872,26 +877,26 @@
           <t/>
         </is>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -903,26 +908,26 @@
           <t/>
         </is>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G30" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -934,26 +939,26 @@
           <t/>
         </is>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -965,26 +970,26 @@
           <t/>
         </is>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G32" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -996,26 +1001,26 @@
           <t/>
         </is>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1058,26 +1063,26 @@
           <t/>
         </is>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="7" t="n">
         <v>30.0</v>
       </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1120,26 +1125,26 @@
           <t/>
         </is>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1182,26 +1187,26 @@
           <t/>
         </is>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1213,26 +1218,26 @@
           <t/>
         </is>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="E40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G40" s="0" t="inlineStr">
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1244,26 +1249,26 @@
           <t/>
         </is>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1341,26 +1346,26 @@
           <t/>
         </is>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="7" t="n">
         <v>20.0</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="7" t="n">
         <v>30.0</v>
       </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1403,26 +1408,26 @@
           <t/>
         </is>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G46" s="0" t="inlineStr">
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1434,26 +1439,26 @@
           <t/>
         </is>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1465,26 +1470,26 @@
           <t/>
         </is>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="7" t="n">
         <v>18.0</v>
       </c>
-      <c r="E48" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G48" s="0" t="inlineStr">
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1496,26 +1501,26 @@
           <t/>
         </is>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1527,26 +1532,26 @@
           <t/>
         </is>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G50" s="0" t="inlineStr">
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1558,26 +1563,26 @@
           <t/>
         </is>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1589,26 +1594,26 @@
           <t/>
         </is>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G52" s="0" t="inlineStr">
+      <c r="E52" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1620,26 +1625,26 @@
           <t/>
         </is>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G53" s="0" t="inlineStr">
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1651,26 +1656,26 @@
           <t/>
         </is>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1682,26 +1687,26 @@
           <t/>
         </is>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="7" t="n">
         <v>14.0</v>
       </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1713,26 +1718,26 @@
           <t/>
         </is>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="7" t="n">
         <v>14.0</v>
       </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1744,26 +1749,26 @@
           <t/>
         </is>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1775,26 +1780,26 @@
           <t/>
         </is>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
+      <c r="E58" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1806,26 +1811,26 @@
           <t/>
         </is>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G59" s="0" t="inlineStr">
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1837,26 +1842,26 @@
           <t/>
         </is>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G60" s="0" t="inlineStr">
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1868,26 +1873,26 @@
           <t/>
         </is>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G61" s="0" t="inlineStr">
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1899,26 +1904,26 @@
           <t/>
         </is>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G62" s="0" t="inlineStr">
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1930,26 +1935,26 @@
           <t/>
         </is>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="7" t="n">
         <v>16.0</v>
       </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G63" s="0" t="inlineStr">
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1961,26 +1966,26 @@
           <t/>
         </is>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="7" t="n">
         <v>14.0</v>
       </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
+      <c r="E64" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F64" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G64" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2023,26 +2028,26 @@
           <t/>
         </is>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="7" t="n">
         <v>30.0</v>
       </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
+      <c r="E66" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G66" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2085,26 +2090,26 @@
           <t/>
         </is>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="E68" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F68" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G68" s="0" t="inlineStr">
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2147,26 +2152,26 @@
           <t/>
         </is>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="7" t="n">
         <v>24.0</v>
       </c>
-      <c r="E70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
+      <c r="E70" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F70" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2178,26 +2183,26 @@
           <t/>
         </is>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="E71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F71" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2209,26 +2214,26 @@
           <t/>
         </is>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="E72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G72" s="0" t="inlineStr">
+      <c r="E72" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F72" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
